--- a/CRAB.xlsx
+++ b/CRAB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B6B60A-95F1-4252-9F09-08BCF971BFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAE8EA9-2209-426E-9A35-B10AE6D0F111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{DF4BAC03-A48F-4394-A425-8EF1480FE31D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{DF4BAC03-A48F-4394-A425-8EF1480FE31D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laufen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,7 +205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BE0A8B-2018-4638-A17A-E9889C5DD4D3}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,4 +1016,1095 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FC873B-CF34-4E04-99AB-C259410A2C44}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>